--- a/credit_raw_data.xlsx
+++ b/credit_raw_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wkdrn\Documents\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A44273-F52E-420A-A044-F54F23DC037B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CF1246-A485-4AC8-A16D-309C534B8672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="600" windowWidth="30930" windowHeight="20445" xr2:uid="{3552B87A-51DC-492F-BE06-FBBB9A80FD9A}"/>
+    <workbookView xWindow="3360" yWindow="615" windowWidth="27435" windowHeight="20445" xr2:uid="{3552B87A-51DC-492F-BE06-FBBB9A80FD9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3351,9 +3351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E29D90-EF6A-4198-8C9D-3AF4290EE64D}">
   <dimension ref="A1:I871"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A682" workbookViewId="0">
-      <selection activeCell="D697" sqref="D697"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
